--- a/src/tests/integration-housing.test-cases.xlsx
+++ b/src/tests/integration-housing.test-cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayuki/WebstormProjects/JibungotoPlanet-backend/src/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/JibungotoPlanet-backend/src/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CC74EF-336B-8940-ABAC-21359633F5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B236DF-D30B-F245-9697-A2E3754E50C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
+    <workbookView xWindow="90800" yWindow="120" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="answers" sheetId="44" r:id="rId1"/>
@@ -3978,7 +3978,7 @@
   </sheetPr>
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="126" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="126" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -6426,7 +6426,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6579,8 +6579,8 @@
       <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="b">
-        <v>1</v>
+      <c r="G4" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>66</v>
@@ -7702,7 +7702,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7854,8 +7854,8 @@
       <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="b">
-        <v>1</v>
+      <c r="G4" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>66</v>
@@ -9705,8 +9705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8BCF2A-693A-8E40-A423-8EE2853BE9FC}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9858,8 +9858,8 @@
       <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="b">
-        <v>1</v>
+      <c r="G4" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>66</v>
@@ -12891,8 +12891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0885C994-9BF6-8C4B-9D1A-FABE9D8B442B}">
   <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -13044,8 +13044,8 @@
       <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="b">
-        <v>1</v>
+      <c r="G4" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>66</v>
